--- a/tabular/virus/borna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/virus/borna-ncbi-refseqs-side-data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA-ve/Bornaviridae-GLUE/tabular/virus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594EDF5-57F3-EA47-BDC0-E1E21723C0DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08ED56-45F3-224E-9AB7-76D16265C695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="4780" windowWidth="20180" windowHeight="10360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
     <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
@@ -29,19 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>clade</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>Alkhumra hemorrhagic fever virus</t>
   </si>
@@ -76,30 +64,18 @@
     <t>LEIV-2247 US</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
     <t>Asia</t>
   </si>
   <si>
-    <t>isolate_name</t>
-  </si>
-  <si>
     <t>* removed from NCBI</t>
   </si>
   <si>
     <t>Tick</t>
   </si>
   <si>
-    <t>isolation_host</t>
-  </si>
-  <si>
     <t>NC_004355</t>
   </si>
   <si>
-    <t>host_group</t>
-  </si>
-  <si>
     <t>Ornithodoros</t>
   </si>
   <si>
@@ -109,9 +85,6 @@
     <t>FlaviPesti</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>Flaviviridae</t>
   </si>
   <si>
@@ -151,9 +124,6 @@
     <t>NC_001607</t>
   </si>
   <si>
-    <t>BDV1</t>
-  </si>
-  <si>
     <t>BDV2</t>
   </si>
   <si>
@@ -233,6 +203,27 @@
   </si>
   <si>
     <t>LGSV1</t>
+  </si>
+  <si>
+    <t>virus_genus</t>
+  </si>
+  <si>
+    <t>virus_family</t>
+  </si>
+  <si>
+    <t>virus_clade</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>virus_name</t>
+  </si>
+  <si>
+    <t>virus_full_name</t>
+  </si>
+  <si>
+    <t>REF_MASTER_BDV1</t>
   </si>
 </sst>
 </file>
@@ -304,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,12 +334,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF330000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -1096,7 +1081,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,12 +1109,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="725">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2193,11 +2174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2207,332 +2188,270 @@
     <col min="3" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="B6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="B10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="B12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="D2:D7"/>
     <sortCondition ref="E2:E7"/>
     <sortCondition ref="F2:F7"/>
@@ -2559,76 +2478,76 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="I1" s="4">
         <v>1176</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
